--- a/CloudMonitor5G-2.0/src/main/resources/templates/3.语音业务分析.xlsx
+++ b/CloudMonitor5G-2.0/src/main/resources/templates/3.语音业务分析.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A0A0D-6663-47F3-B1A3-352F7A8658CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6900"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,12 +15,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
   <si>
     <t>基本信息</t>
   </si>
@@ -378,205 +379,206 @@
     <t>${item.call05}</t>
   </si>
   <si>
-    <t>${item.call06}</t>
+    <t>${item.epsfb01}</t>
+  </si>
+  <si>
+    <t>${item.epsfb02}</t>
+  </si>
+  <si>
+    <t>${item.epsfb03}</t>
+  </si>
+  <si>
+    <t>${item.epsfb04}</t>
+  </si>
+  <si>
+    <t>${item.epsfb05}</t>
+  </si>
+  <si>
+    <t>${item.epsfb06}</t>
+  </si>
+  <si>
+    <t>${item.epsfb07}</t>
+  </si>
+  <si>
+    <t>${item.epsfb08}</t>
+  </si>
+  <si>
+    <t>${item.epsfb09}</t>
+  </si>
+  <si>
+    <t>${item.epsfb10}</t>
+  </si>
+  <si>
+    <t>${item.epsfb11}</t>
+  </si>
+  <si>
+    <t>${item.epsfb13}</t>
+  </si>
+  <si>
+    <t>${item.epsfb14}</t>
+  </si>
+  <si>
+    <t>${item.epsfb15}</t>
+  </si>
+  <si>
+    <t>${item.epsfb16}</t>
+  </si>
+  <si>
+    <t>${item.epsfb17}</t>
+  </si>
+  <si>
+    <t>${item.epsfb18}</t>
+  </si>
+  <si>
+    <t>${item.epsfb19}</t>
+  </si>
+  <si>
+    <t>${item.epsfb20}</t>
+  </si>
+  <si>
+    <t>${item.epsfb21}</t>
+  </si>
+  <si>
+    <t>${item.epsfb22}</t>
+  </si>
+  <si>
+    <t>${item.epsfb23}</t>
+  </si>
+  <si>
+    <t>${item.epsfb24}</t>
+  </si>
+  <si>
+    <t>${item.epsfb25}</t>
+  </si>
+  <si>
+    <t>${item.epsfb26}</t>
+  </si>
+  <si>
+    <t>${item.epsfb27}</t>
+  </si>
+  <si>
+    <t>${item.epsfb28}</t>
+  </si>
+  <si>
+    <t>${item.epsfb29}</t>
+  </si>
+  <si>
+    <t>${item.epsfb30}</t>
+  </si>
+  <si>
+    <t>${item.epsfb31}</t>
+  </si>
+  <si>
+    <t>${item.epsfb32}</t>
+  </si>
+  <si>
+    <t>${item.epsfb33}</t>
+  </si>
+  <si>
+    <t>${item.epsfb34}</t>
+  </si>
+  <si>
+    <t>${item.drop01}</t>
+  </si>
+  <si>
+    <t>${item.drop02}</t>
+  </si>
+  <si>
+    <t>${item.drop03}</t>
+  </si>
+  <si>
+    <t>${item.drop04}</t>
+  </si>
+  <si>
+    <t>${item.drop05}</t>
+  </si>
+  <si>
+    <t>${item.drop06}</t>
+  </si>
+  <si>
+    <t>${item.drop07}</t>
+  </si>
+  <si>
+    <t>${item.drop08}</t>
+  </si>
+  <si>
+    <t>${item.drop09}</t>
+  </si>
+  <si>
+    <t>${item.drop10}</t>
+  </si>
+  <si>
+    <t>${item.drop11}</t>
+  </si>
+  <si>
+    <t>${item.drop12}</t>
+  </si>
+  <si>
+    <t>${item.drop13}</t>
+  </si>
+  <si>
+    <t>${item.drop14}</t>
+  </si>
+  <si>
+    <t>${item.fr01}</t>
+  </si>
+  <si>
+    <t>${item.fr02}</t>
+  </si>
+  <si>
+    <t>${item.fr03}</t>
+  </si>
+  <si>
+    <t>${item.fr04}</t>
+  </si>
+  <si>
+    <t>${item.fr05}</t>
+  </si>
+  <si>
+    <t>${item.fr06}</t>
+  </si>
+  <si>
+    <t>${item.fr07}</t>
+  </si>
+  <si>
+    <t>${item.fr08}</t>
+  </si>
+  <si>
+    <t>${item.fr09}</t>
+  </si>
+  <si>
+    <t>${item.fr10}</t>
+  </si>
+  <si>
+    <t>${item.fr11}</t>
+  </si>
+  <si>
+    <t>${item.fr12}</t>
+  </si>
+  <si>
+    <t>${item.fr13}</t>
   </si>
   <si>
     <t>${item.call07}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${item.call08}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${item.call09}</t>
-  </si>
-  <si>
-    <t>${item.epsfb01}</t>
-  </si>
-  <si>
-    <t>${item.epsfb02}</t>
-  </si>
-  <si>
-    <t>${item.epsfb03}</t>
-  </si>
-  <si>
-    <t>${item.epsfb04}</t>
-  </si>
-  <si>
-    <t>${item.epsfb05}</t>
-  </si>
-  <si>
-    <t>${item.epsfb06}</t>
-  </si>
-  <si>
-    <t>${item.epsfb07}</t>
-  </si>
-  <si>
-    <t>${item.epsfb08}</t>
-  </si>
-  <si>
-    <t>${item.epsfb09}</t>
-  </si>
-  <si>
-    <t>${item.epsfb10}</t>
-  </si>
-  <si>
-    <t>${item.epsfb11}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${item.epsfb12}</t>
-  </si>
-  <si>
-    <t>${item.epsfb13}</t>
-  </si>
-  <si>
-    <t>${item.epsfb14}</t>
-  </si>
-  <si>
-    <t>${item.epsfb15}</t>
-  </si>
-  <si>
-    <t>${item.epsfb16}</t>
-  </si>
-  <si>
-    <t>${item.epsfb17}</t>
-  </si>
-  <si>
-    <t>${item.epsfb18}</t>
-  </si>
-  <si>
-    <t>${item.epsfb19}</t>
-  </si>
-  <si>
-    <t>${item.epsfb20}</t>
-  </si>
-  <si>
-    <t>${item.epsfb21}</t>
-  </si>
-  <si>
-    <t>${item.epsfb22}</t>
-  </si>
-  <si>
-    <t>${item.epsfb23}</t>
-  </si>
-  <si>
-    <t>${item.epsfb24}</t>
-  </si>
-  <si>
-    <t>${item.epsfb25}</t>
-  </si>
-  <si>
-    <t>${item.epsfb26}</t>
-  </si>
-  <si>
-    <t>${item.epsfb27}</t>
-  </si>
-  <si>
-    <t>${item.epsfb28}</t>
-  </si>
-  <si>
-    <t>${item.epsfb29}</t>
-  </si>
-  <si>
-    <t>${item.epsfb30}</t>
-  </si>
-  <si>
-    <t>${item.epsfb31}</t>
-  </si>
-  <si>
-    <t>${item.epsfb32}</t>
-  </si>
-  <si>
-    <t>${item.epsfb33}</t>
-  </si>
-  <si>
-    <t>${item.epsfb34}</t>
-  </si>
-  <si>
-    <t>${item.drop01}</t>
-  </si>
-  <si>
-    <t>${item.drop02}</t>
-  </si>
-  <si>
-    <t>${item.drop03}</t>
-  </si>
-  <si>
-    <t>${item.drop04}</t>
-  </si>
-  <si>
-    <t>${item.drop05}</t>
-  </si>
-  <si>
-    <t>${item.drop06}</t>
-  </si>
-  <si>
-    <t>${item.drop07}</t>
-  </si>
-  <si>
-    <t>${item.drop08}</t>
-  </si>
-  <si>
-    <t>${item.drop09}</t>
-  </si>
-  <si>
-    <t>${item.drop10}</t>
-  </si>
-  <si>
-    <t>${item.drop11}</t>
-  </si>
-  <si>
-    <t>${item.drop12}</t>
-  </si>
-  <si>
-    <t>${item.drop13}</t>
-  </si>
-  <si>
-    <t>${item.drop14}</t>
-  </si>
-  <si>
-    <t>${item.fr01}</t>
-  </si>
-  <si>
-    <t>${item.fr02}</t>
-  </si>
-  <si>
-    <t>${item.fr03}</t>
-  </si>
-  <si>
-    <t>${item.fr04}</t>
-  </si>
-  <si>
-    <t>${item.fr05}</t>
-  </si>
-  <si>
-    <t>${item.fr06}</t>
-  </si>
-  <si>
-    <t>${item.fr07}</t>
-  </si>
-  <si>
-    <t>${item.fr08}</t>
-  </si>
-  <si>
-    <t>${item.fr09}</t>
-  </si>
-  <si>
-    <t>${item.fr10}</t>
-  </si>
-  <si>
-    <t>${item.fr11}</t>
-  </si>
-  <si>
-    <t>${item.fr12}</t>
-  </si>
-  <si>
-    <t>${item.fr13}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -835,6 +837,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -870,6 +889,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1045,11 +1081,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BA5" sqref="BA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1536,199 +1572,199 @@
         <v>86</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="M5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="R5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="S5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="U5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="V5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="X5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="Y5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="Z5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="AA5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="AB5" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="AC5" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AD5" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AE5" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AF5" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AC5" s="8" t="s">
+      <c r="AG5" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AD5" s="8" t="s">
+      <c r="AH5" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="AE5" s="8" t="s">
+      <c r="AI5" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AF5" s="8" t="s">
+      <c r="AJ5" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AG5" s="8" t="s">
+      <c r="AK5" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AH5" s="8" t="s">
+      <c r="AL5" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="AI5" s="8" t="s">
+      <c r="AM5" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AJ5" s="8" t="s">
+      <c r="AN5" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AK5" s="8" t="s">
+      <c r="AO5" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AL5" s="8" t="s">
+      <c r="AP5" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="AM5" s="8" t="s">
+      <c r="AQ5" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AN5" s="8" t="s">
+      <c r="AR5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="AO5" s="8" t="s">
+      <c r="AS5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP5" s="8" t="s">
+      <c r="AT5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AQ5" s="8" t="s">
+      <c r="AU5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="AR5" s="8" t="s">
+      <c r="AV5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AS5" s="7" t="s">
+      <c r="AW5" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AT5" s="7" t="s">
+      <c r="AX5" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="AU5" s="7" t="s">
+      <c r="AY5" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AV5" s="7" t="s">
+      <c r="AZ5" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="AW5" s="7" t="s">
+      <c r="BA5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB5" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="AX5" s="7" t="s">
+      <c r="BC5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AY5" s="7" t="s">
+      <c r="BD5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AZ5" s="7" t="s">
+      <c r="BE5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="BA5" s="7" t="s">
+      <c r="BF5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="BB5" s="7" t="s">
+      <c r="BG5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="BC5" s="7" t="s">
+      <c r="BH5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="BD5" s="7" t="s">
+      <c r="BI5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="BE5" s="7" t="s">
+      <c r="BJ5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="BF5" s="7" t="s">
+      <c r="BK5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="BG5" s="7" t="s">
+      <c r="BL5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="BH5" s="7" t="s">
+      <c r="BM5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="BI5" s="7" t="s">
+      <c r="BN5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="BJ5" s="7" t="s">
+      <c r="BO5" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="BK5" s="7" t="s">
+      <c r="BP5" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="BL5" s="7" t="s">
+      <c r="BQ5" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="BM5" s="7" t="s">
+      <c r="BR5" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="BN5" s="7" t="s">
+      <c r="BS5" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="BO5" s="7" t="s">
+      <c r="BT5" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="BP5" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="BR5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="BS5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="BT5" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.15">

--- a/CloudMonitor5G-2.0/src/main/resources/templates/3.语音业务分析.xlsx
+++ b/CloudMonitor5G-2.0/src/main/resources/templates/3.语音业务分析.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A0A0D-6663-47F3-B1A3-352F7A8658CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>基本信息</t>
   </si>
@@ -578,8 +577,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,7 +761,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -804,7 +803,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -836,27 +835,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -888,24 +869,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1081,19 +1044,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BS8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA5" sqref="BA5"/>
+      <selection activeCell="AX9" sqref="AX9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="45" max="45" width="22.625" customWidth="1"/>
+    <col min="53" max="53" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:71" ht="16.5">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1160,12 +1125,12 @@
       <c r="BD1" s="9"/>
       <c r="BE1" s="9"/>
       <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="10" t="s">
+      <c r="BG1" s="10" t="s">
         <v>55</v>
       </c>
+      <c r="BH1" s="10"/>
       <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
+      <c r="BJ1" s="11"/>
       <c r="BK1" s="11"/>
       <c r="BL1" s="11"/>
       <c r="BM1" s="11"/>
@@ -1175,9 +1140,8 @@
       <c r="BQ1" s="11"/>
       <c r="BR1" s="11"/>
       <c r="BS1" s="11"/>
-      <c r="BT1" s="11"/>
     </row>
-    <row r="2" spans="1:72" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:71" ht="16.5">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="13"/>
@@ -1240,7 +1204,7 @@
       <c r="BD2" s="9"/>
       <c r="BE2" s="9"/>
       <c r="BF2" s="9"/>
-      <c r="BG2" s="9"/>
+      <c r="BG2" s="11"/>
       <c r="BH2" s="11"/>
       <c r="BI2" s="11"/>
       <c r="BJ2" s="11"/>
@@ -1253,9 +1217,8 @@
       <c r="BQ2" s="11"/>
       <c r="BR2" s="11"/>
       <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
     </row>
-    <row r="3" spans="1:72" s="1" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:71" s="1" customFormat="1" ht="121.5">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1413,67 +1376,64 @@
         <v>46</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BD3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BE3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BF3" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BG3" s="4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="BH3" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="BI3" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BJ3" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BL3" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BM3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BN3" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BO3" s="4" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="BP3" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="BQ3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BR3" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BS3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BT3" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:71">
       <c r="A4" s="6" t="s">
         <v>78</v>
       </c>
@@ -1547,9 +1507,8 @@
       <c r="BQ4" s="7"/>
       <c r="BR4" s="7"/>
       <c r="BS4" s="7"/>
-      <c r="BT4" s="7"/>
     </row>
-    <row r="5" spans="1:72" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:71" ht="27">
       <c r="A5" s="6" t="s">
         <v>80</v>
       </c>
@@ -1707,67 +1666,64 @@
         <v>127</v>
       </c>
       <c r="BA5" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="BB5" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BC5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BD5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BE5" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BF5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BG5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BH5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BI5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BJ5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BK5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BL5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BM5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BN5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BO5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BP5" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BQ5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BR5" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BS5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="BT5" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:71">
       <c r="A6" s="6" t="s">
         <v>79</v>
       </c>
@@ -1841,9 +1797,8 @@
       <c r="BQ6" s="7"/>
       <c r="BR6" s="7"/>
       <c r="BS6" s="7"/>
-      <c r="BT6" s="7"/>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:71">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1915,9 +1870,8 @@
       <c r="BQ7" s="7"/>
       <c r="BR7" s="7"/>
       <c r="BS7" s="7"/>
-      <c r="BT7" s="7"/>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:71">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1989,12 +1943,11 @@
       <c r="BQ8" s="7"/>
       <c r="BR8" s="7"/>
       <c r="BS8" s="7"/>
-      <c r="BT8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="AS1:BG2"/>
-    <mergeCell ref="BH1:BT2"/>
+    <mergeCell ref="AS1:BF2"/>
+    <mergeCell ref="BG1:BS2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:J2"/>
     <mergeCell ref="K2:W2"/>
